--- a/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_磐石组.xlsx
+++ b/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_磐石组.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17668"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.2.11 20170214\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianwenbo\Desktop\Mogo_Doc\VersionRecords\Version 5.2.11 20170214\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="829"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="829" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.11 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="116">
   <si>
     <t>No</t>
   </si>
@@ -348,13 +348,71 @@
   </si>
   <si>
     <t>磐石组</t>
+  </si>
+  <si>
+    <t>5.2.11</t>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>mogo_trade_TaskTracker</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS组</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>防套现规则记录</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RiskCashSuspicionTask</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用填</t>
+  </si>
+  <si>
+    <t>RiskCashSuspicionTask</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RiskCashSuspicionTask"}</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>每天早上1点</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>如有错，需开发修复</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -535,6 +593,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -810,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1198,6 +1262,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1225,8 +1292,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1604,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1754,7 +1827,7 @@
       <c r="Q2" s="84">
         <v>42781</v>
       </c>
-      <c r="R2" s="138" t="s">
+      <c r="R2" s="129" t="s">
         <v>92</v>
       </c>
       <c r="S2" s="100"/>
@@ -5884,8 +5957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
@@ -5964,24 +6037,58 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="49"/>
+    <row r="2" spans="1:18" ht="77.25" customHeight="1">
+      <c r="A2" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="140" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="141" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" s="49" t="s">
+        <v>115</v>
+      </c>
       <c r="R2" s="49"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
@@ -6052,19 +6159,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="24" t="s">
@@ -6102,8 +6209,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="131"/>
-      <c r="B3" s="131"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="132"/>
       <c r="C3" s="26"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -6115,8 +6222,8 @@
       <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="133"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="134"/>
       <c r="C4" s="26"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -6128,8 +6235,8 @@
       <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="131"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="132"/>
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -6141,8 +6248,8 @@
       <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="133"/>
-      <c r="B6" s="133"/>
+      <c r="A6" s="134"/>
+      <c r="B6" s="134"/>
       <c r="C6" s="26"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -6154,8 +6261,8 @@
       <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="133"/>
-      <c r="B7" s="133"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -6167,8 +6274,8 @@
       <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="133"/>
-      <c r="B8" s="133"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="26"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -6180,8 +6287,8 @@
       <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="133"/>
-      <c r="B9" s="133"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -6193,8 +6300,8 @@
       <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="132"/>
-      <c r="B10" s="132"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="26"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -6255,36 +6362,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="135"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="136"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="137"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="138"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -6613,36 +6720,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="135"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="136"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="137"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="138"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -6995,36 +7102,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="135"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="136"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="137"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="138"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -7317,36 +7424,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="135"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="136"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="137"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="138"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">

--- a/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_磐石组.xlsx
+++ b/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_磐石组.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17668"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianwenbo\Desktop\Mogo_Doc\VersionRecords\Version 5.2.11 20170214\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.2.11 20170214\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="829" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="829"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.11 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="124">
   <si>
     <t>No</t>
   </si>
@@ -406,12 +406,40 @@
   <si>
     <t>如有错，需开发修复</t>
     <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>不重要</t>
+  </si>
+  <si>
+    <t>报修列表添加TP来源</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>DV-2448</t>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2169</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="30">
     <font>
       <sz val="11"/>
@@ -1265,6 +1293,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1291,15 +1328,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1677,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1850,7 +1878,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F3" s="60" t="s">
         <v>97</v>
@@ -1886,7 +1914,9 @@
       <c r="Q3" s="84">
         <v>42781</v>
       </c>
-      <c r="R3" s="99"/>
+      <c r="R3" s="129" t="s">
+        <v>121</v>
+      </c>
       <c r="S3" s="102"/>
       <c r="T3" s="93"/>
       <c r="U3" s="93"/>
@@ -1894,24 +1924,58 @@
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" s="53" customFormat="1" ht="27" customHeight="1">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="64"/>
+      <c r="A4" s="60">
+        <v>3</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="64">
+        <v>42781</v>
+      </c>
+      <c r="I4" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="64">
+        <v>42781</v>
+      </c>
       <c r="K4" s="62"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="99"/>
+      <c r="L4" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="P4" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="84">
+        <v>42781</v>
+      </c>
+      <c r="R4" s="129" t="s">
+        <v>123</v>
+      </c>
       <c r="S4" s="102"/>
       <c r="T4" s="93"/>
       <c r="U4" s="93"/>
@@ -5935,7 +5999,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1 U2 T21 G1:G1048576 I1:I1048576 U5:U6 U9:U13 U15:U19 V20:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1 U2 T21 G1:G1048576 V20:V1048576 U5:U6 U9:U13 U15:U19 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5947,6 +6011,8 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="R3" r:id="rId2"/>
+    <hyperlink ref="R4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5957,7 +6023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -6047,16 +6113,16 @@
       <c r="C2" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="139" t="s">
+      <c r="D2" s="130" t="s">
         <v>103</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="140" t="s">
+      <c r="F2" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="141" t="s">
+      <c r="G2" s="132" t="s">
         <v>106</v>
       </c>
       <c r="H2" s="43" t="s">
@@ -6159,19 +6225,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="24" t="s">
@@ -6209,8 +6275,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="132"/>
-      <c r="B3" s="132"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="26"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -6222,8 +6288,8 @@
       <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="133"/>
-      <c r="B4" s="134"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="26"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -6235,8 +6301,8 @@
       <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="132"/>
-      <c r="B5" s="132"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -6248,8 +6314,8 @@
       <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="134"/>
-      <c r="B6" s="134"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="137"/>
       <c r="C6" s="26"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -6261,8 +6327,8 @@
       <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="134"/>
-      <c r="B7" s="134"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="137"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -6274,8 +6340,8 @@
       <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="134"/>
-      <c r="B8" s="134"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="26"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -6287,8 +6353,8 @@
       <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="134"/>
-      <c r="B9" s="134"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -6300,8 +6366,8 @@
       <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="133"/>
-      <c r="B10" s="133"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="26"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -6362,36 +6428,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="138"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -6720,36 +6786,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="138"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -7102,36 +7168,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="138"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -7424,36 +7490,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="138"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
